--- a/biology/Médecine/Frein_lingual/Frein_lingual.xlsx
+++ b/biology/Médecine/Frein_lingual/Frein_lingual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le frein lingual, aussi nommé frein de la langue ou corde de langue, est un tissu situé sous la langue, ayant pour but de la retenir. Il s'agit d'un tissu mou, non musculaire, constitué d'une muqueuse, de fibres nombreuses, innervé et vascularisé.
 Il existe d'autres freins dans la bouche, notamment le frein labial qui attache la lèvre supérieure à la mâchoire.
@@ -512,7 +524,9 @@
           <t>Anomalies et problèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un frein anormal, qui est une anomalie congénitale, affecte environ 5 % de la population et est plus commun chez les garçons que chez les filles.
 Un frein labial trop court peut retenir la lèvre supérieure et empêcher de sourire facilement ou normalement. Des troubles de prononciation (élocution) peuvent également en résulter, particulièrement pour les sons “S”, “R” et le “TH” anglo-saxon. La plupart des enfants ayant un frein court ne présentent cependant pas de problèmes d’élocution sévères.
@@ -548,7 +562,9 @@
           <t>Frénectomie linguale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un acte chirurgical simple consistant à couper chirurgicalement le frein de la langue, pour lui redonner une liberté de mouvement optimale. 
 L'acte est réalisé sous anesthésie loco-régionale par un chirurgien stomatologue ou un chirurgien-dentiste. La douleur est donc inexistante pendant l'acte, mais des douleurs peuvent cependant apparaître dans les jours suivant l'intervention. Des sutures sont souvent réalisées. L'intervention nécessite prudence et minutie, puisque le dessous de la langue est une région extrêmement vascularisée et innervée.
